--- a/src/models/baselines/RF/results/real-world/Dribbble/metrics.xlsx
+++ b/src/models/baselines/RF/results/real-world/Dribbble/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8206331026852841</v>
+        <v>0.8213765356994071</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6688311688311688</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6688311688311688</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8434105286971972</v>
+        <v>0.8459577618862375</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7337662337662337</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7337662337662337</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8733355611838093</v>
+        <v>0.8774044231453662</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8207241134810473</v>
+        <v>0.815974343163465</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="D6" t="n">
-        <v>0.802671109952353</v>
+        <v>0.8000785093128289</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.5974025974025974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7831974896332531</v>
+        <v>0.7941230270073415</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6038961038961039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8102676317466623</v>
+        <v>0.8032501441550307</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8035249008847947</v>
+        <v>0.8070389384120048</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6038961038961039</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6038961038961039</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.788000197264779</v>
+        <v>0.7967425101460311</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6688311688311688</v>
+        <v>0.6558441558441559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6688311688311688</v>
+        <v>0.6558441558441559</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8228795070863578</v>
+        <v>0.8386584132738504</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6461038961038961</v>
+        <v>0.6435064935064935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6461038961038961</v>
+        <v>0.6435064935064935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8168644142615538</v>
+        <v>0.8200604606201564</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03970548988710852</v>
+        <v>0.03889484516412745</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03970548988710852</v>
+        <v>0.03889484516412745</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02655912301763337</v>
+        <v>0.02664835816999777</v>
       </c>
     </row>
   </sheetData>
